--- a/Backup calculation compPV.xlsx
+++ b/Backup calculation compPV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="500" yWindow="460" windowWidth="11180" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="500" yWindow="460" windowWidth="26380" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Embodied</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>gCO2/kWh</t>
+  </si>
+  <si>
+    <t>ASF DE incl shading</t>
+  </si>
+  <si>
+    <t>ASF ENTSO-E incl shading motorized</t>
   </si>
 </sst>
 </file>
@@ -393,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -404,9 +410,10 @@
     <col min="2" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -416,8 +423,14 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -430,8 +443,14 @@
       <c r="D2" s="1">
         <v>2676.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1">
+        <v>2676.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3252.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -446,8 +465,16 @@
         <f>-1021.8*20*0.1131</f>
         <v>-2311.3116</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="1">
+        <f>-1021.8*20*0.6109</f>
+        <v>-12484.3524</v>
+      </c>
+      <c r="F3" s="1">
+        <f>-1021.8*20*0.4621</f>
+        <v>-9443.4755999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -463,8 +490,16 @@
         <f>1.45/1000*4*54*365*20*0.1131</f>
         <v>258.58731600000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1">
+        <f>1.45/1000*4*54*365*20*0.6109</f>
+        <v>1396.7373240000002</v>
+      </c>
+      <c r="F4" s="1">
+        <f>0.148*0.4621</f>
+        <v>6.8390800000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -480,8 +515,15 @@
         <f>(42.73+35.81)*3</f>
         <v>235.61999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="1">
+        <f>(42.73+35.81)*3</f>
+        <v>235.61999999999998</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -494,8 +536,14 @@
       <c r="D6" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="1">
+        <v>77</v>
+      </c>
+      <c r="F6" s="1">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -511,11 +559,19 @@
         <f t="shared" si="0"/>
         <v>936.39571600000011</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="3">
+        <f t="shared" ref="E7" si="1">SUM(E2:E6)</f>
+        <v>-8098.4950760000002</v>
+      </c>
+      <c r="F7" s="3">
+        <f>SUM(F2:F6)</f>
+        <v>-6104.6072091999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -531,8 +587,16 @@
         <f>580*20</f>
         <v>11600</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="4">
+        <f>580*20</f>
+        <v>11600</v>
+      </c>
+      <c r="F9" s="4">
+        <f>580*20</f>
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -541,12 +605,20 @@
         <v>-465.33005551724136</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ref="C11:D11" si="1">C7/C9*1000</f>
+        <f t="shared" ref="C11:D11" si="2">C7/C9*1000</f>
         <v>348.76266862068968</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80.723768620689668</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" ref="E11" si="3">E7/E9*1000</f>
+        <v>-698.14612724137942</v>
+      </c>
+      <c r="F11" s="3">
+        <f>F7/F9*1000</f>
+        <v>-526.25924217241368</v>
       </c>
     </row>
   </sheetData>

--- a/Backup calculation compPV.xlsx
+++ b/Backup calculation compPV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="500" yWindow="460" windowWidth="26380" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="8840" yWindow="2720" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Embodied</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>ASF ENTSO-E incl shading motorized</t>
+  </si>
+  <si>
+    <t>ASF CH incl shading motorized</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -410,10 +413,10 @@
     <col min="2" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -429,8 +432,11 @@
       <c r="F1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -449,8 +455,11 @@
       <c r="F2" s="1">
         <v>3252.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="1">
+        <v>3252.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -473,8 +482,12 @@
         <f>-1021.8*20*0.4621</f>
         <v>-9443.4755999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1">
+        <f>-1021.8*20*0.1131</f>
+        <v>-2311.3116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -495,11 +508,15 @@
         <v>1396.7373240000002</v>
       </c>
       <c r="F4" s="1">
-        <f>0.148*0.4621</f>
-        <v>6.8390800000000002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <f>15.8*0.4621</f>
+        <v>7.3011800000000004</v>
+      </c>
+      <c r="G4" s="1">
+        <f>15.8*0.1131</f>
+        <v>1.7869800000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -522,8 +539,11 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -542,8 +562,11 @@
       <c r="F6" s="1">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -565,13 +588,17 @@
       </c>
       <c r="F7" s="3">
         <f>SUM(F2:F6)</f>
-        <v>-6104.6072091999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-6097.3744199999992</v>
+      </c>
+      <c r="G7" s="3">
+        <f>SUM(G2:G6)</f>
+        <v>1029.27538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -595,8 +622,12 @@
         <f>580*20</f>
         <v>11600</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="4">
+        <f>580*20</f>
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -618,7 +649,11 @@
       </c>
       <c r="F11" s="3">
         <f>F7/F9*1000</f>
-        <v>-526.25924217241368</v>
+        <v>-525.63572586206885</v>
+      </c>
+      <c r="G11" s="3">
+        <f>G7/G9*1000</f>
+        <v>88.730636206896563</v>
       </c>
     </row>
   </sheetData>

--- a/Backup calculation compPV.xlsx
+++ b/Backup calculation compPV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8840" yWindow="2720" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="16840" yWindow="7360" windowWidth="22040" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Embodied</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>ASF CH incl shading motorized</t>
+  </si>
+  <si>
+    <t>ASF ENTSO-E incl shading invdividual</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -416,7 +419,7 @@
     <col min="5" max="5" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -435,31 +438,37 @@
       <c r="G1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>2676.5</v>
+        <v>2675.4</v>
       </c>
       <c r="C2" s="1">
-        <v>2676.5</v>
+        <v>2675.4</v>
       </c>
       <c r="D2" s="1">
-        <v>2676.5</v>
+        <v>2675.4</v>
       </c>
       <c r="E2" s="1">
-        <v>2676.5</v>
+        <v>2675.4</v>
       </c>
       <c r="F2" s="1">
-        <v>3252.3</v>
+        <v>3251.2</v>
       </c>
       <c r="G2" s="1">
-        <v>3252.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3251.2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -486,26 +495,30 @@
         <f>-1021.8*20*0.1131</f>
         <v>-2311.3116</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="1">
+        <f>-1021.8*20*0.4621</f>
+        <v>-9443.4755999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <f>1.45/1000*4*54*365*20*0.4621</f>
-        <v>1056.5269560000002</v>
+        <f>0.31/1000*4*54*365*20*0.4621</f>
+        <v>225.87817680000001</v>
       </c>
       <c r="C4" s="1">
-        <f>1.45/1000*4*54*365*20*0.4621</f>
-        <v>1056.5269560000002</v>
+        <f>0.31/1000*4*54*365*20*0.4621</f>
+        <v>225.87817680000001</v>
       </c>
       <c r="D4" s="1">
-        <f>1.45/1000*4*54*365*20*0.1131</f>
-        <v>258.58731600000004</v>
+        <f>0.31/1000*4*54*365*20*0.1131</f>
+        <v>55.284184800000006</v>
       </c>
       <c r="E4" s="1">
-        <f>1.45/1000*4*54*365*20*0.6109</f>
-        <v>1396.7373240000002</v>
+        <f>0.31/1000*4*54*365*20*0.6109</f>
+        <v>298.61280720000002</v>
       </c>
       <c r="F4" s="1">
         <f>15.8*0.4621</f>
@@ -515,8 +528,12 @@
         <f>15.8*0.1131</f>
         <v>1.7869800000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="1">
+        <f>0.31/1000*4*54*365*20*0.4621</f>
+        <v>225.87817680000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -542,8 +559,12 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="1">
+        <f>(42.73+35.81)*3</f>
+        <v>235.61999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -565,95 +586,110 @@
       <c r="G6" s="1">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3">
         <f>SUM(B2:B6)</f>
-        <v>-5397.8286440000002</v>
+        <v>-6229.5774232000003</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:D7" si="0">SUM(C2:C6)</f>
-        <v>4045.646956</v>
+        <v>3213.8981767999999</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>936.39571600000011</v>
+        <v>731.99258480000003</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ref="E7" si="1">SUM(E2:E6)</f>
-        <v>-8098.4950760000002</v>
+        <v>-9197.7195928000001</v>
       </c>
       <c r="F7" s="3">
         <f>SUM(F2:F6)</f>
-        <v>-6097.3744199999992</v>
+        <v>-6098.4744199999996</v>
       </c>
       <c r="G7" s="3">
         <f>SUM(G2:G6)</f>
-        <v>1029.27538</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1028.1753799999997</v>
+      </c>
+      <c r="H7" s="3">
+        <f>SUM(H2:H6)</f>
+        <v>-6212.9774232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <f>580*20</f>
+        <f t="shared" ref="B9:H9" si="2">580*20</f>
         <v>11600</v>
       </c>
       <c r="C9" s="4">
-        <f>580*20</f>
+        <f t="shared" si="2"/>
         <v>11600</v>
       </c>
       <c r="D9" s="4">
-        <f>580*20</f>
+        <f t="shared" si="2"/>
         <v>11600</v>
       </c>
       <c r="E9" s="4">
-        <f>580*20</f>
+        <f t="shared" si="2"/>
         <v>11600</v>
       </c>
       <c r="F9" s="4">
-        <f>580*20</f>
+        <f t="shared" si="2"/>
         <v>11600</v>
       </c>
       <c r="G9" s="4">
-        <f>580*20</f>
+        <f t="shared" si="2"/>
         <v>11600</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="4">
+        <f t="shared" si="2"/>
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3">
         <f>B7/B9*1000</f>
-        <v>-465.33005551724136</v>
+        <v>-537.03253648275859</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ref="C11:D11" si="2">C7/C9*1000</f>
-        <v>348.76266862068968</v>
+        <f t="shared" ref="C11:D11" si="3">C7/C9*1000</f>
+        <v>277.06018765517246</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>80.723768620689668</v>
+        <f t="shared" si="3"/>
+        <v>63.10280903448276</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" ref="E11" si="3">E7/E9*1000</f>
-        <v>-698.14612724137942</v>
+        <f t="shared" ref="E11" si="4">E7/E9*1000</f>
+        <v>-792.90686144827578</v>
       </c>
       <c r="F11" s="3">
         <f>F7/F9*1000</f>
-        <v>-525.63572586206885</v>
+        <v>-525.73055344827583</v>
       </c>
       <c r="G11" s="3">
         <f>G7/G9*1000</f>
-        <v>88.730636206896563</v>
+        <v>88.635808620689616</v>
+      </c>
+      <c r="H11" s="3">
+        <f>H7/H9*1000</f>
+        <v>-535.60150199999998</v>
       </c>
     </row>
   </sheetData>

--- a/Backup calculation compPV.xlsx
+++ b/Backup calculation compPV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="7360" windowWidth="22040" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="4680" yWindow="3860" windowWidth="22620" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Embodied</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>ASF ENTSO-E incl shading invdividual</t>
+  </si>
+  <si>
+    <t>actuations</t>
+  </si>
+  <si>
+    <t>calc for numb of actuations</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,6 +423,7 @@
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -692,6 +699,42 @@
         <v>-535.60150199999998</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <f>0.31/1000*$B$17*54*365*20*0.4621</f>
+        <v>338.81726520000001</v>
+      </c>
+      <c r="C15" s="1">
+        <f>0.01/1000*$B$17*54*365*20*0.4621</f>
+        <v>10.929589200000001</v>
+      </c>
+      <c r="D15" s="1">
+        <f>B15-C15</f>
+        <v>327.887676</v>
+      </c>
+      <c r="F15" s="1">
+        <f>F7-B7</f>
+        <v>131.10300320000079</v>
+      </c>
+      <c r="G15">
+        <v>218.6</v>
+      </c>
+      <c r="H15" s="1">
+        <f>G15+F15</f>
+        <v>349.70300320000081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Backup calculation compPV.xlsx
+++ b/Backup calculation compPV.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieljansen/Desktop/paper/LCA_Paper/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26405"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="3860" windowWidth="22620" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Actuations when Even" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Embodied</t>
   </si>
@@ -75,6 +71,15 @@
   </si>
   <si>
     <t>calc for numb of actuations</t>
+  </si>
+  <si>
+    <t>Number of  Actuations</t>
+  </si>
+  <si>
+    <t>Find out when soft robotic actuators break even with servo motors</t>
+  </si>
+  <si>
+    <t>Difference</t>
   </si>
 </sst>
 </file>
@@ -84,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,16 +112,57 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -124,19 +170,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -191,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,7 +320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -413,20 +507,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -449,7 +545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -475,7 +571,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -507,7 +603,7 @@
         <v>-9443.4755999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -540,7 +636,7 @@
         <v>225.87817680000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -571,7 +667,7 @@
         <v>235.61999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -597,7 +693,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -630,10 +726,10 @@
         <v>-6212.9774232</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -666,7 +762,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -699,7 +795,7 @@
         <v>-535.60150199999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -727,7 +823,7 @@
         <v>349.70300320000081</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -737,5 +833,230 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2675.4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>3251.2</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <f>-1021.8*20*0.4621</f>
+        <v>-9443.4755999999998</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <f>-1021.8*20*0.4621</f>
+        <v>-9443.4755999999998</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <f>0.31/1000*$B$18*54*365*20*0.4621</f>
+        <v>338.81726520000001</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <f>0.01/1000*$B$18*54*365*20*0.4621</f>
+        <v>10.929589200000001</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <f>(42.73+35.81)*3</f>
+        <v>235.61999999999998</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>86.5</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <f>SUM(B3:B7)</f>
+        <v>-6116.6383347999999</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <f>SUM(F3:F7)</f>
+        <v>-6094.8460107999999</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" ref="B10:H10" si="0">580*20</f>
+        <v>11600</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>11600</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <f>B8/B10*1000</f>
+        <v>-527.29640817241375</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <f>F8/F10*1000</f>
+        <v>-525.41775955172409</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <f>0.31/1000*$B$18*54*365*20*0.4621</f>
+        <v>338.81726520000001</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="F16" s="1">
+        <f>F8-B8</f>
+        <v>21.792324000000008</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6">
+        <f>F12-B12</f>
+        <v>1.8786486206896598</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Backup calculation compPV.xlsx
+++ b/Backup calculation compPV.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieljansen/Desktop/paper/LCA_Paper/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Actuations when Even" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Embodied</t>
   </si>
@@ -80,6 +85,39 @@
   </si>
   <si>
     <t>Difference</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>CdTe</t>
+  </si>
+  <si>
+    <t>Pv-type</t>
+  </si>
+  <si>
+    <t>Poly-Si</t>
+  </si>
+  <si>
+    <t>Insolation</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>embodied</t>
+  </si>
+  <si>
+    <t>LT</t>
   </si>
 </sst>
 </file>
@@ -212,7 +250,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -220,6 +258,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -497,7 +536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,13 +544,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
@@ -522,7 +561,7 @@
     <col min="8" max="8" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -545,7 +584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -571,7 +610,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -603,7 +642,7 @@
         <v>-9443.4755999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -636,7 +675,7 @@
         <v>225.87817680000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -667,7 +706,7 @@
         <v>235.61999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -693,7 +732,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -726,10 +765,10 @@
         <v>-6212.9774232</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -762,7 +801,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -795,7 +834,7 @@
         <v>-535.60150199999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -823,22 +862,152 @@
         <v>349.70300320000081</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
         <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>1240</v>
+      </c>
+      <c r="C21">
+        <v>1240</v>
+      </c>
+      <c r="D21">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C22">
+        <v>0.11</v>
+      </c>
+      <c r="D22">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0.75</v>
+      </c>
+      <c r="C23">
+        <v>0.75</v>
+      </c>
+      <c r="D23">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>15.19</v>
+      </c>
+      <c r="C24">
+        <v>15.19</v>
+      </c>
+      <c r="D24">
+        <v>15.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="7">
+        <f>B21*B22*B23*B24*B25</f>
+        <v>39554.760000000009</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" ref="C26:D26" si="5">C21*C22*C23*C24*C25</f>
+        <v>31078.74</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="5"/>
+        <v>25428.059999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>4014.88</v>
+      </c>
+      <c r="C28">
+        <v>2546.41</v>
+      </c>
+      <c r="D28">
+        <v>1937.94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <f>B28/B26*1000</f>
+        <v>101.5018167219318</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:D30" si="6">C28/C26*1000</f>
+        <v>81.934145335364292</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="6"/>
+        <v>76.212656411853686</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -846,11 +1015,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" customWidth="1"/>
@@ -862,12 +1031,12 @@
     <col min="8" max="8" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -875,7 +1044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -891,7 +1060,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -909,7 +1078,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -927,7 +1096,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -944,7 +1113,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -960,7 +1129,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -978,15 +1147,15 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <f t="shared" ref="B10:H10" si="0">580*20</f>
+        <f t="shared" ref="B10:F10" si="0">580*20</f>
         <v>11600</v>
       </c>
       <c r="C10" s="4"/>
@@ -999,7 +1168,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1017,7 +1186,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1033,7 +1202,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1041,7 +1210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1053,10 +1222,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Backup calculation compPV.xlsx
+++ b/Backup calculation compPV.xlsx
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Backup calculation compPV.xlsx
+++ b/Backup calculation compPV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="6140" yWindow="2940" windowWidth="29380" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Embodied</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>LT</t>
+  </si>
+  <si>
+    <t>Static ASF ENTSO-E excl shading</t>
+  </si>
+  <si>
+    <t>Static ASF ENTSO-E incl shading</t>
   </si>
 </sst>
 </file>
@@ -544,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,7 +567,7 @@
     <col min="8" max="8" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -583,8 +589,14 @@
       <c r="H1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -609,8 +621,10 @@
       <c r="H2" s="1">
         <v>2692</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -641,8 +655,12 @@
         <f>-1021.8*20*0.4621</f>
         <v>-9443.4755999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -674,8 +692,14 @@
         <f>0.31/1000*4*54*365*20*0.4621</f>
         <v>225.87817680000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -705,8 +729,14 @@
         <f>(42.73+35.81)*3</f>
         <v>235.61999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -731,8 +761,10 @@
       <c r="H6" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -764,16 +796,24 @@
         <f>SUM(H2:H6)</f>
         <v>-6212.9774232</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="3">
+        <f>SUM(I2:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <f>SUM(J2:J6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <f t="shared" ref="B9:H9" si="2">580*20</f>
+        <f t="shared" ref="B9:I9" si="2">580*20</f>
         <v>11600</v>
       </c>
       <c r="C9" s="4">
@@ -800,8 +840,14 @@
         <f t="shared" si="2"/>
         <v>11600</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -833,8 +879,16 @@
         <f>H7/H9*1000</f>
         <v>-535.60150199999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="3">
+        <f>I7/I9*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <f>J7/J9*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>

--- a/Backup calculation compPV.xlsx
+++ b/Backup calculation compPV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="2940" windowWidth="29380" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Embodied</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Static ASF ENTSO-E incl shading</t>
+  </si>
+  <si>
+    <t>disposal</t>
   </si>
 </sst>
 </file>
@@ -550,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,6 +568,8 @@
     <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -621,8 +626,12 @@
       <c r="H2" s="1">
         <v>2692</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="1">
+        <v>2352.3000000000002</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2352.3000000000002</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -655,7 +664,10 @@
         <f>-1021.8*20*0.4621</f>
         <v>-9443.4755999999998</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <f>-780*20*0.4621</f>
+        <v>-7208.76</v>
+      </c>
       <c r="J3" s="1">
         <v>0</v>
       </c>
@@ -761,8 +773,12 @@
       <c r="H6" s="1">
         <v>77</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="1">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="J6" s="1">
+        <v>74.099999999999994</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -798,11 +814,11 @@
       </c>
       <c r="I7" s="3">
         <f>SUM(I2:I6)</f>
-        <v>0</v>
+        <v>-4782.3599999999997</v>
       </c>
       <c r="J7" s="3">
         <f>SUM(J2:J6)</f>
-        <v>0</v>
+        <v>2426.4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -813,7 +829,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <f t="shared" ref="B9:I9" si="2">580*20</f>
+        <f t="shared" ref="B9:H9" si="2">580*20</f>
         <v>11600</v>
       </c>
       <c r="C9" s="4">
@@ -841,10 +857,10 @@
         <v>11600</v>
       </c>
       <c r="I9" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -879,13 +895,13 @@
         <f>H7/H9*1000</f>
         <v>-535.60150199999998</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="3" t="e">
         <f>I7/I9*1000</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="3" t="e">
         <f>J7/J9*1000</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1042,20 +1058,51 @@
         <v>1937.94</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2">
+        <f>SUM(B28:B29)</f>
+        <v>4014.88</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" ref="C30:D30" si="6">SUM(C28:C29)</f>
+        <v>2546.41</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="6"/>
+        <v>1937.94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B30">
-        <f>B28/B26*1000</f>
+      <c r="B32">
+        <f>B30/B26*1000</f>
         <v>101.5018167219318</v>
       </c>
-      <c r="C30">
-        <f t="shared" ref="C30:D30" si="6">C28/C26*1000</f>
+      <c r="C32">
+        <f t="shared" ref="C32:D32" si="7">C30/C26*1000</f>
         <v>81.934145335364292</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="6"/>
+      <c r="D32">
+        <f t="shared" si="7"/>
         <v>76.212656411853686</v>
       </c>
     </row>

--- a/Backup calculation compPV.xlsx
+++ b/Backup calculation compPV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="12840" yWindow="460" windowWidth="13340" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Embodied</t>
   </si>
@@ -72,9 +72,6 @@
     <t>ASF ENTSO-E incl shading invdividual</t>
   </si>
   <si>
-    <t>actuations</t>
-  </si>
-  <si>
     <t>calc for numb of actuations</t>
   </si>
   <si>
@@ -87,46 +84,46 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>CIS</t>
-  </si>
-  <si>
-    <t>CdTe</t>
-  </si>
-  <si>
     <t>Pv-type</t>
   </si>
   <si>
-    <t>Poly-Si</t>
-  </si>
-  <si>
-    <t>Insolation</t>
-  </si>
-  <si>
-    <t>efficiency</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>production</t>
-  </si>
-  <si>
-    <t>embodied</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
     <t>Static ASF ENTSO-E excl shading</t>
   </si>
   <si>
     <t>Static ASF ENTSO-E incl shading</t>
   </si>
   <si>
-    <t>disposal</t>
+    <t>Total Irradiation (kWh/m2/year)</t>
+  </si>
+  <si>
+    <t>Utility Factor (m2/m2)</t>
+  </si>
+  <si>
+    <t>Losses from sub optimal angle</t>
+  </si>
+  <si>
+    <t>Irradation of active PV  (kWh/m2/year)</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Self Shading Losses</t>
+  </si>
+  <si>
+    <t>Losses due to sub optimal tracking angle</t>
+  </si>
+  <si>
+    <t>Flat  PolySi</t>
+  </si>
+  <si>
+    <t>Flat  CdTe</t>
+  </si>
+  <si>
+    <t>Flat  CIGS</t>
+  </si>
+  <si>
+    <t>Total Power (kWh/year)</t>
   </si>
 </sst>
 </file>
@@ -259,7 +256,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -267,7 +264,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -553,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,10 +596,10 @@
         <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -828,39 +829,41 @@
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <f t="shared" ref="B9:H9" si="2">580*20</f>
-        <v>11600</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="2"/>
-        <v>11600</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="2"/>
-        <v>11600</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="2"/>
-        <v>11600</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="2"/>
-        <v>11600</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="2"/>
-        <v>11600</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="2"/>
-        <v>11600</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
+      <c r="B9" s="11">
+        <f>518.1946*20</f>
+        <v>10363.892</v>
+      </c>
+      <c r="C9" s="11">
+        <f>518.1946*20</f>
+        <v>10363.892</v>
+      </c>
+      <c r="D9" s="11">
+        <f>518.1946*20</f>
+        <v>10363.892</v>
+      </c>
+      <c r="E9" s="11">
+        <f>518.1946*20</f>
+        <v>10363.892</v>
+      </c>
+      <c r="F9" s="11">
+        <f>518.1946*20</f>
+        <v>10363.892</v>
+      </c>
+      <c r="G9" s="11">
+        <f>518.1946*20</f>
+        <v>10363.892</v>
+      </c>
+      <c r="H9" s="11">
+        <f>518.1946*20</f>
+        <v>10363.892</v>
+      </c>
+      <c r="I9" s="11">
+        <f>471.086*20</f>
+        <v>9421.7200000000012</v>
+      </c>
+      <c r="J9" s="11">
+        <f>471.086*20</f>
+        <v>9421.7200000000012</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -869,241 +872,245 @@
       </c>
       <c r="B11" s="3">
         <f>B7/B9*1000</f>
-        <v>-537.03253648275859</v>
+        <v>-601.08474916566104</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ref="C11:D11" si="3">C7/C9*1000</f>
-        <v>277.06018765517246</v>
+        <f t="shared" ref="C11:D11" si="2">C7/C9*1000</f>
+        <v>310.10533270705639</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="3"/>
-        <v>63.10280903448276</v>
+        <f t="shared" si="2"/>
+        <v>70.629121260622938</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" ref="E11" si="4">E7/E9*1000</f>
-        <v>-792.90686144827578</v>
+        <f t="shared" ref="E11" si="3">E7/E9*1000</f>
+        <v>-887.47736784597907</v>
       </c>
       <c r="F11" s="3">
         <f>F7/F9*1000</f>
-        <v>-525.73055344827583</v>
+        <v>-588.43477141598919</v>
       </c>
       <c r="G11" s="3">
         <f>G7/G9*1000</f>
-        <v>88.635808620689616</v>
+        <v>99.207457970422666</v>
       </c>
       <c r="H11" s="3">
         <f>H7/H9*1000</f>
-        <v>-535.60150199999998</v>
-      </c>
-      <c r="I11" s="3" t="e">
+        <v>-599.48303428866302</v>
+      </c>
+      <c r="I11" s="3">
         <f>I7/I9*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="3" t="e">
+        <v>-507.58884789613779</v>
+      </c>
+      <c r="J11" s="3">
         <f>J7/J9*1000</f>
-        <v>#DIV/0!</v>
+        <v>257.53259489774689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1">
-        <f>0.31/1000*$B$17*54*365*20*0.4621</f>
-        <v>338.81726520000001</v>
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>966</v>
       </c>
       <c r="C15" s="1">
-        <f>0.01/1000*$B$17*54*365*20*0.4621</f>
-        <v>10.929589200000001</v>
-      </c>
-      <c r="D15" s="1">
-        <f>B15-C15</f>
-        <v>327.887676</v>
-      </c>
-      <c r="F15" s="1">
-        <f>F7-B7</f>
-        <v>131.10300320000079</v>
-      </c>
-      <c r="G15">
-        <v>218.6</v>
-      </c>
-      <c r="H15" s="1">
-        <f>G15+F15</f>
-        <v>349.70300320000081</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>966</v>
+      </c>
+      <c r="D15">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>0.6944444444444442</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.6944444444444442</v>
+      </c>
+      <c r="D16">
+        <v>0.6944444444444442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.38470000000000004</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.38470000000000004</v>
+      </c>
+      <c r="D17">
+        <v>0.38470000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>412.76374999999979</v>
+      </c>
+      <c r="C18" s="1">
+        <v>412.76374999999979</v>
+      </c>
+      <c r="D18">
+        <v>412.76374999999979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="D19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>1240</v>
-      </c>
-      <c r="C21">
-        <v>1240</v>
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C22">
-        <v>0.11</v>
-      </c>
-      <c r="D22">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>0.75</v>
-      </c>
-      <c r="C23">
-        <v>0.75</v>
-      </c>
-      <c r="D23">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="10">
+        <v>439.18062999999978</v>
+      </c>
+      <c r="C22" s="10">
+        <v>690.14098999999965</v>
+      </c>
+      <c r="D22" s="10">
+        <v>627.40089999999964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>15.19</v>
+        <v>4014.88</v>
       </c>
       <c r="C24">
-        <v>15.19</v>
+        <v>2546.41</v>
       </c>
       <c r="D24">
-        <v>15.19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1937.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="7">
-        <f>B21*B22*B23*B24*B25</f>
-        <v>39554.760000000009</v>
-      </c>
-      <c r="C26" s="7">
-        <f t="shared" ref="C26:D26" si="5">C21*C22*C23*C24*C25</f>
-        <v>31078.74</v>
-      </c>
-      <c r="D26" s="7">
-        <f t="shared" si="5"/>
-        <v>25428.059999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2">
+        <f>SUM(B24:B26)</f>
         <v>4014.88</v>
       </c>
-      <c r="C28">
+      <c r="C27" s="2">
+        <f t="shared" ref="C27:D27" si="4">SUM(C24:C26)</f>
         <v>2546.41</v>
       </c>
-      <c r="D28">
+      <c r="D27" s="2">
+        <f t="shared" si="4"/>
         <v>1937.94</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="2">
-        <f>SUM(B28:B29)</f>
-        <v>4014.88</v>
-      </c>
-      <c r="C30" s="2">
-        <f t="shared" ref="C30:D30" si="6">SUM(C28:C29)</f>
-        <v>2546.41</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="6"/>
-        <v>1937.94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B32">
-        <f>B30/B26*1000</f>
-        <v>101.5018167219318</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ref="C32:D32" si="7">C30/C26*1000</f>
-        <v>81.934145335364292</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="7"/>
-        <v>76.212656411853686</v>
+      <c r="B29" s="3">
+        <f>B27/(B22*20)*1000</f>
+        <v>457.08755415738648</v>
+      </c>
+      <c r="C29" s="3">
+        <f>C27/(C22*20)*1000</f>
+        <v>184.4847673806479</v>
+      </c>
+      <c r="D29" s="3">
+        <f>D27/(D22*20)*1000</f>
+        <v>154.44192062842123</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1141,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1289,7 +1296,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <f>0.31/1000*$B$18*54*365*20*0.4621</f>
@@ -1305,7 +1312,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5">
         <v>6</v>
@@ -1313,7 +1320,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6">
         <f>F12-B12</f>

--- a/Backup calculation compPV.xlsx
+++ b/Backup calculation compPV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="460" windowWidth="13340" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="13760" yWindow="460" windowWidth="13340" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,12 +87,6 @@
     <t>Pv-type</t>
   </si>
   <si>
-    <t>Static ASF ENTSO-E excl shading</t>
-  </si>
-  <si>
-    <t>Static ASF ENTSO-E incl shading</t>
-  </si>
-  <si>
     <t>Total Irradiation (kWh/m2/year)</t>
   </si>
   <si>
@@ -124,6 +118,12 @@
   </si>
   <si>
     <t>Total Power (kWh/year)</t>
+  </si>
+  <si>
+    <t>Orientated solar façade ENTSO-E excl shading</t>
+  </si>
+  <si>
+    <t>Orientated solar facade ASF ENTSO-E incl shading</t>
   </si>
 </sst>
 </file>
@@ -556,9 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -596,10 +594,10 @@
         <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -830,31 +828,31 @@
         <v>9</v>
       </c>
       <c r="B9" s="11">
-        <f>518.1946*20</f>
+        <f t="shared" ref="B9:H9" si="2">518.1946*20</f>
         <v>10363.892</v>
       </c>
       <c r="C9" s="11">
-        <f>518.1946*20</f>
+        <f t="shared" si="2"/>
         <v>10363.892</v>
       </c>
       <c r="D9" s="11">
-        <f>518.1946*20</f>
+        <f t="shared" si="2"/>
         <v>10363.892</v>
       </c>
       <c r="E9" s="11">
-        <f>518.1946*20</f>
+        <f t="shared" si="2"/>
         <v>10363.892</v>
       </c>
       <c r="F9" s="11">
-        <f>518.1946*20</f>
+        <f t="shared" si="2"/>
         <v>10363.892</v>
       </c>
       <c r="G9" s="11">
-        <f>518.1946*20</f>
+        <f t="shared" si="2"/>
         <v>10363.892</v>
       </c>
       <c r="H9" s="11">
-        <f>518.1946*20</f>
+        <f t="shared" si="2"/>
         <v>10363.892</v>
       </c>
       <c r="I9" s="11">
@@ -875,15 +873,15 @@
         <v>-601.08474916566104</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ref="C11:D11" si="2">C7/C9*1000</f>
+        <f t="shared" ref="C11:D11" si="3">C7/C9*1000</f>
         <v>310.10533270705639</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70.629121260622938</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" ref="E11" si="3">E7/E9*1000</f>
+        <f t="shared" ref="E11" si="4">E7/E9*1000</f>
         <v>-887.47736784597907</v>
       </c>
       <c r="F11" s="3">
@@ -912,18 +910,18 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>966</v>
@@ -937,7 +935,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>0.6944444444444442</v>
@@ -951,7 +949,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0.38470000000000004</v>
@@ -965,7 +963,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>412.76374999999979</v>
@@ -979,7 +977,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>7.0000000000000007E-2</v>
@@ -993,7 +991,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="8">
         <v>0</v>
@@ -1008,7 +1006,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1022,7 +1020,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="10">
         <v>439.18062999999978</v>
@@ -1088,11 +1086,11 @@
         <v>4014.88</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ref="C27:D27" si="4">SUM(C24:C26)</f>
+        <f t="shared" ref="C27:D27" si="5">SUM(C24:C26)</f>
         <v>2546.41</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1937.94</v>
       </c>
     </row>

--- a/Backup calculation compPV.xlsx
+++ b/Backup calculation compPV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13760" yWindow="460" windowWidth="13340" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="7100" yWindow="460" windowWidth="13340" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Embodied</t>
   </si>
@@ -554,9 +554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1051,7 +1053,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1065,50 +1067,78 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="2">
-        <f>SUM(B24:B26)</f>
-        <v>4014.88</v>
-      </c>
-      <c r="C27" s="2">
-        <f t="shared" ref="C27:D27" si="5">SUM(C24:C26)</f>
-        <v>2546.41</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="5"/>
-        <v>1937.94</v>
+      <c r="B28">
+        <v>3.09</v>
+      </c>
+      <c r="C28">
+        <v>3.09</v>
+      </c>
+      <c r="D28">
+        <v>3.09</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2">
+        <f>SUM(B24:B28)</f>
+        <v>4017.9700000000003</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" ref="C29:D29" si="5">SUM(C24:C28)</f>
+        <v>2549.5</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="5"/>
+        <v>1941.03</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="3">
-        <f>B27/(B22*20)*1000</f>
-        <v>457.08755415738648</v>
-      </c>
-      <c r="C29" s="3">
-        <f>C27/(C22*20)*1000</f>
-        <v>184.4847673806479</v>
-      </c>
-      <c r="D29" s="3">
-        <f>D27/(D22*20)*1000</f>
-        <v>154.44192062842123</v>
+      <c r="B31" s="3">
+        <f>B29/(B22*20)*1000</f>
+        <v>457.43934562869981</v>
+      </c>
+      <c r="C31" s="3">
+        <f>C29/(C22*20)*1000</f>
+        <v>184.70863468057456</v>
+      </c>
+      <c r="D31" s="3">
+        <f>D29/(D22*20)*1000</f>
+        <v>154.68817465834056</v>
       </c>
     </row>
   </sheetData>

--- a/Backup calculation compPV.xlsx
+++ b/Backup calculation compPV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="460" windowWidth="13340" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="14200" yWindow="500" windowWidth="13340" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,9 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Backup calculation compPV.xlsx
+++ b/Backup calculation compPV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14200" yWindow="500" windowWidth="13340" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="7740" yWindow="460" windowWidth="13340" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -923,7 +925,7 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>966</v>
       </c>
       <c r="C15" s="1">
@@ -937,13 +939,13 @@
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <v>0.6944444444444442</v>
       </c>
       <c r="C16" s="7">
         <v>0.6944444444444442</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>0.6944444444444442</v>
       </c>
     </row>
@@ -951,7 +953,7 @@
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>0.38470000000000004</v>
       </c>
       <c r="C17" s="7">
@@ -965,7 +967,7 @@
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>412.76374999999979</v>
       </c>
       <c r="C18" s="1">
@@ -979,8 +981,8 @@
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
-        <v>7.0000000000000007E-2</v>
+      <c r="B19" s="7">
+        <v>0.14000000000000001</v>
       </c>
       <c r="C19" s="7">
         <v>0.11</v>
@@ -993,7 +995,7 @@
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>0</v>
       </c>
       <c r="C20" s="8">
@@ -1008,7 +1010,7 @@
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="7">
         <v>1</v>
       </c>
       <c r="C21" s="7">
@@ -1022,8 +1024,8 @@
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="10">
-        <v>439.18062999999978</v>
+      <c r="B22" s="1">
+        <v>878.36125999999956</v>
       </c>
       <c r="C22" s="10">
         <v>690.14098999999965</v>
@@ -1040,13 +1042,13 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>4014.88</v>
+        <v>3034.0680000000002</v>
       </c>
       <c r="C24">
-        <v>2546.41</v>
+        <v>2020.8</v>
       </c>
       <c r="D24">
-        <v>1937.94</v>
+        <v>1600.97</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1111,15 +1113,15 @@
       </c>
       <c r="B29" s="2">
         <f>SUM(B24:B28)</f>
-        <v>4017.9700000000003</v>
+        <v>3037.1580000000004</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" ref="C29:D29" si="5">SUM(C24:C28)</f>
-        <v>2549.5</v>
+        <v>2023.8899999999999</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="5"/>
-        <v>1941.03</v>
+        <v>1604.06</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1128,15 +1130,15 @@
       </c>
       <c r="B31" s="3">
         <f>B29/(B22*20)*1000</f>
-        <v>457.43934562869981</v>
+        <v>172.88774780436026</v>
       </c>
       <c r="C31" s="3">
         <f>C29/(C22*20)*1000</f>
-        <v>184.70863468057456</v>
+        <v>146.62873451408825</v>
       </c>
       <c r="D31" s="3">
         <f>D29/(D22*20)*1000</f>
-        <v>154.68817465834056</v>
+        <v>127.83373437940566</v>
       </c>
     </row>
   </sheetData>

--- a/Backup calculation compPV.xlsx
+++ b/Backup calculation compPV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="460" windowWidth="13340" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="13460" yWindow="460" windowWidth="13340" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Backup calculation compPV.xlsx
+++ b/Backup calculation compPV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13460" yWindow="460" windowWidth="13340" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="8640" yWindow="460" windowWidth="13340" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Backup calculation compPV.xlsx
+++ b/Backup calculation compPV.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieljansen/Desktop/paper/LCA_Paper/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="460" windowWidth="13340" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="640" windowWidth="27680" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Actuations when Even" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -546,7 +541,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -556,11 +551,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
@@ -573,7 +568,7 @@
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -602,7 +597,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -634,7 +629,7 @@
         <v>2352.3000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -673,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -712,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -749,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -781,7 +776,7 @@
         <v>74.099999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -822,10 +817,10 @@
         <v>2426.4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -866,7 +861,7 @@
         <v>9421.7200000000012</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -907,7 +902,7 @@
         <v>257.53259489774689</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -921,7 +916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -935,7 +930,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -949,7 +944,7 @@
         <v>0.6944444444444442</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -963,7 +958,7 @@
         <v>0.38470000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -977,7 +972,7 @@
         <v>412.76374999999979</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -991,7 +986,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1006,7 +1001,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1020,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
@@ -1034,10 +1029,10 @@
         <v>627.40089999999964</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1046,7 @@
         <v>1600.97</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1065,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1079,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1093,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1107,7 +1102,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -1124,7 +1119,7 @@
         <v>1604.06</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -1144,6 +1139,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1155,7 +1155,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" customWidth="1"/>
@@ -1167,12 +1167,12 @@
     <col min="8" max="8" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1196,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1214,7 +1214,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1249,7 +1249,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1265,7 +1265,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1283,10 +1283,10 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1304,7 +1304,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1358,5 +1358,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Backup calculation compPV.xlsx
+++ b/Backup calculation compPV.xlsx
@@ -552,7 +552,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
